--- a/static/generated_files/marlena/price_list_with_selling_prices.xlsx
+++ b/static/generated_files/marlena/price_list_with_selling_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,62 +451,42 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Power(W)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Delivery</t>
+          <t>Colour</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CW</t>
+          <t>Design</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Power(W)</t>
+          <t>Length</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Colour</t>
+          <t>Width</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Design</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Length</t>
+          <t>Pcs Pal</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Width</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Pcs Pal</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
           <t>Pcs ctn</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>price_label_1</t>
         </is>
       </c>
     </row>
@@ -528,58 +508,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>395</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>04/2024</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>1 708</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1 133</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1 708</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>1 133</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0.090</t>
         </is>
       </c>
     </row>
@@ -601,62 +561,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1 240</t>
+          <t>585</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>06/2024</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2 278</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
           <t>620</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0.115</t>
         </is>
       </c>
     </row>
@@ -678,62 +618,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3 600</t>
+          <t>580</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>05/2024</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2 278</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
           <t>720</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0.120</t>
         </is>
       </c>
     </row>
@@ -755,62 +675,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2 160</t>
+          <t>585</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>05/2024</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2 278</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
           <t>720</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0.130</t>
         </is>
       </c>
     </row>
@@ -832,62 +732,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1 728</t>
+          <t>625</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>05/2024</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>2 465</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2 465</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
           <t>576</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0.130</t>
         </is>
       </c>
     </row>
@@ -909,62 +789,42 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10 080</t>
+          <t>560</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>06/2024</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2 278</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
           <t>720</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0.122</t>
         </is>
       </c>
     </row>
@@ -986,62 +846,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2 160</t>
+          <t>565</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>06/2024</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2 278</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
           <t>720</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0.122</t>
         </is>
       </c>
     </row>
@@ -1063,62 +903,42 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2 278</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>720</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>07/2024</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>575</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Silver Frame</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Bifacial</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2 278</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>720</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0.116</t>
         </is>
       </c>
     </row>
@@ -1140,62 +960,42 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>435</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>07/2024</t>
+          <t>Full Black</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Full Black</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1 722</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0.130</t>
         </is>
       </c>
     </row>
@@ -1217,62 +1017,42 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4 680</t>
+          <t>430</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>07/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1 722</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0.121</t>
         </is>
       </c>
     </row>
@@ -1294,62 +1074,42 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4 680</t>
+          <t>435</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>07/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1 722</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0.124</t>
         </is>
       </c>
     </row>
@@ -1371,62 +1131,42 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1 872</t>
+          <t>440</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>07/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1 722</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0.122</t>
         </is>
       </c>
     </row>
@@ -1448,62 +1188,42 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2 728</t>
+          <t>520</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>07/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>2 094</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2 094</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
           <t>682</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0.122</t>
         </is>
       </c>
     </row>
@@ -1525,62 +1245,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5 456</t>
+          <t>525</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>07/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>2 094</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2 094</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
           <t>682</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0.122</t>
         </is>
       </c>
     </row>
@@ -1602,62 +1302,42 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4 320</t>
+          <t>480</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>06/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>1 906</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1 906</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
           <t>864</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0.115</t>
         </is>
       </c>
     </row>
@@ -1679,62 +1359,42 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3 720</t>
+          <t>575</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>06/2024</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2 278</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
           <t>620</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>0.122</t>
         </is>
       </c>
     </row>
@@ -1756,62 +1416,42 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4 960</t>
+          <t>585</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>07/2024</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2 278</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
           <t>620</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>0.122</t>
         </is>
       </c>
     </row>
@@ -1833,62 +1473,42 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1 038</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2 094</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>792</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>03/2024</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Silver Frame</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>1 038</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2 094</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>792</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>0.140</t>
         </is>
       </c>
     </row>
@@ -1910,62 +1530,42 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1 728</t>
+          <t>495</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>07/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 961</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1 961</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
           <t>864</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>0.118</t>
         </is>
       </c>
     </row>
@@ -1987,62 +1587,42 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6 912</t>
+          <t>500</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>07/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 961</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1 961</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
           <t>864</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>0.121</t>
         </is>
       </c>
     </row>
@@ -2064,62 +1644,42 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1 728</t>
+          <t>505</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>07/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 961</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1 961</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
           <t>864</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>0.124</t>
         </is>
       </c>
     </row>
@@ -2141,62 +1701,42 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7 488</t>
+          <t>435</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>07/2024</t>
+          <t>Full Black</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Full Black</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1 762</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>0.126</t>
         </is>
       </c>
     </row>
@@ -2218,62 +1758,42 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3 744</t>
+          <t>440</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>Full Black</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Full Black</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1 762</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>0.129</t>
         </is>
       </c>
     </row>
@@ -2295,62 +1815,42 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3 744</t>
+          <t>445</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>Full Black</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Full Black</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1 762</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>0.132</t>
         </is>
       </c>
     </row>
@@ -2372,62 +1872,42 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>06/2024</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Double glass</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>1 762</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>0.122</t>
         </is>
       </c>
     </row>
@@ -2449,62 +1929,42 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>30 888</t>
+          <t>445</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>06/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1 762</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>0.129</t>
         </is>
       </c>
     </row>
@@ -2526,62 +1986,42 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>59 904</t>
+          <t>450</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>06/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1 762</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>0.132</t>
         </is>
       </c>
     </row>
@@ -2603,62 +2043,42 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>25 852</t>
+          <t>455</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>07/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1 762</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>0.134</t>
         </is>
       </c>
     </row>
@@ -2680,62 +2100,42 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>06/2024</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>430</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Double glass</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>1 762</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>0.135</t>
         </is>
       </c>
     </row>
@@ -2757,62 +2157,42 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6 200</t>
+          <t>580</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>07/2024</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2 278</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
           <t>620</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>0.122</t>
         </is>
       </c>
     </row>
@@ -2834,62 +2214,42 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4 680</t>
+          <t>450</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>06/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>0.115</t>
         </is>
       </c>
     </row>
@@ -2911,62 +2271,42 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4 680</t>
+          <t>445</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>06/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>0.115</t>
         </is>
       </c>
     </row>
@@ -2988,62 +2328,42 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2 700</t>
+          <t>435</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>04/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1 762</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>0.127</t>
         </is>
       </c>
     </row>
@@ -3065,56 +2385,36 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>135</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>03/2024</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+          <t>Frameless Full Light blue (7004)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>664</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Frameless Full Light blue (7004)</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>664</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>1 587</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>1.926</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3134,52 +2434,32 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>03/2024</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>664</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>1 587</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>1.357</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3199,62 +2479,42 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>1 903</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
           <t>840</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>06/2024</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>460</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>1 903</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>840</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>0.111</t>
         </is>
       </c>
     </row>
@@ -3276,62 +2536,42 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1 680</t>
+          <t>460</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 800</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>1 800</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
           <t>840</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>0.115</t>
         </is>
       </c>
     </row>
@@ -3353,62 +2593,42 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1 800</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
           <t>840</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>08/2024</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>465</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>1 800</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>840</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>0.115</t>
         </is>
       </c>
     </row>
@@ -3430,62 +2650,42 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>440</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>06/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>1 722</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
           <t>840</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>0.110</t>
         </is>
       </c>
     </row>
@@ -3507,62 +2707,42 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>425</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>02/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>1 722</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>0.115</t>
         </is>
       </c>
     </row>
@@ -3584,62 +2764,42 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4 680</t>
+          <t>435</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>06/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>1 722</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>0.122</t>
         </is>
       </c>
     </row>
@@ -3661,62 +2821,42 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4 680</t>
+          <t>440</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>06/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>0.118</t>
         </is>
       </c>
     </row>
@@ -3738,62 +2878,42 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>18 720</t>
+          <t>445</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>05/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>0.122</t>
         </is>
       </c>
     </row>
@@ -3815,62 +2935,42 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2 628</t>
+          <t>435</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>06/2024</t>
+          <t>Full Black</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Full Black</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>0.123</t>
         </is>
       </c>
     </row>
@@ -3892,62 +2992,42 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>17 784</t>
+          <t>435</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>05/2024</t>
+          <t>Full Black</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Full Black</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>1 762</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>0.127</t>
         </is>
       </c>
     </row>
@@ -3969,62 +3049,42 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10 656</t>
+          <t>440</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>06/2024</t>
+          <t>Full Black</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Full Black</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>1 762</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>0.127</t>
         </is>
       </c>
     </row>
@@ -4046,62 +3106,42 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>15 912</t>
+          <t>415</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>02/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>1 722</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>0.107</t>
         </is>
       </c>
     </row>
@@ -4123,62 +3163,42 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>420</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>02/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>1 722</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>0.107</t>
         </is>
       </c>
     </row>
@@ -4200,62 +3220,42 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1 872</t>
+          <t>420</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>02/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>1 762</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>0.103</t>
         </is>
       </c>
     </row>
@@ -4277,62 +3277,42 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>19 656</t>
+          <t>405</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>02/2024</t>
+          <t>Full Black</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Full Black</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>1 722</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>0.107</t>
         </is>
       </c>
     </row>
@@ -4354,62 +3334,42 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>385</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>05/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>1 052</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 769</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>1 052</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>1 769</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
           <t>806</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>0.110</t>
         </is>
       </c>
     </row>
@@ -4431,62 +3391,42 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>11 088</t>
+          <t>505</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>05/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>2 093</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2 093</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
           <t>792</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>0.108</t>
         </is>
       </c>
     </row>
@@ -4508,62 +3448,42 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>5 760</t>
+          <t>545</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>04/2024</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>1 052</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>2 117</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>1 052</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2 117</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
           <t>620</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>0.115</t>
         </is>
       </c>
     </row>
@@ -4585,62 +3505,42 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>11 520</t>
+          <t>550</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>06/2024</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>1 052</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>2 117</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>1 052</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2 117</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
           <t>720</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>0.115</t>
         </is>
       </c>
     </row>
@@ -4662,62 +3562,42 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>560</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>03/2024</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>1 052</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>2 117</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>1 052</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2 117</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
           <t>620</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>0.110</t>
         </is>
       </c>
     </row>
@@ -4739,62 +3619,42 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>12 852</t>
+          <t>580</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>06/2024</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2 278</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
           <t>720</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>0.117</t>
         </is>
       </c>
     </row>
@@ -4816,62 +3676,42 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>12 240</t>
+          <t>580</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>04/2024</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2 278</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
           <t>720</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>0.117</t>
         </is>
       </c>
     </row>
@@ -4893,62 +3733,42 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>15 840</t>
+          <t>585</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>05/2024</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2 278</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
           <t>720</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>0.117</t>
         </is>
       </c>
     </row>
@@ -4970,62 +3790,42 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>14 400</t>
+          <t>590</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>06/2024</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>2 333</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2 333</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
           <t>720</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>0.117</t>
         </is>
       </c>
     </row>
@@ -5047,62 +3847,42 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2 465</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
           <t>496</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>03/2024</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>630</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Silver Frame</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Bifacial</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>2 465</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>496</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>0.122</t>
         </is>
       </c>
     </row>
@@ -5124,62 +3904,42 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>12 944</t>
+          <t>550</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>06/2024</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>2 279</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2 279</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
           <t>620</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>0.115</t>
         </is>
       </c>
     </row>
@@ -5201,62 +3961,42 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4 680</t>
+          <t>430</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>04/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>1 762</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>0.130</t>
         </is>
       </c>
     </row>
@@ -5278,62 +4018,42 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>22 032</t>
+          <t>435</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>05/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1 762</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>0.138</t>
         </is>
       </c>
     </row>
@@ -5355,62 +4075,42 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>20 592</t>
+          <t>440</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>07/2024</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>1 762</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>0.137</t>
         </is>
       </c>
     </row>

--- a/static/generated_files/marlena/price_list_with_selling_prices.xlsx
+++ b/static/generated_files/marlena/price_list_with_selling_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,42 +451,62 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CW</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Power(W)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Colour</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Length</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Width</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Pcs Pal</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Pcs ctn</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>price_label_1</t>
         </is>
       </c>
     </row>
@@ -498,48 +518,56 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ASTROENERGY</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHSM54M-HC-395W</t>
+          <t>AVANCIS POWERMAX SKALA 130W Green 4002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>395</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1 708</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1 133</t>
-        </is>
-      </c>
+          <t>Frameless Full Green (4002)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>686</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>1 595</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -551,52 +579,64 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>JINKO</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>JINKO JKM585N-72HL4 TIGER NEO N-TYPE / SF</t>
+          <t>LR5-66HTH-530M</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Silver Frame</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>Glass foil</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2 278</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2 094</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>620</t>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0.160</t>
         </is>
       </c>
     </row>
@@ -608,52 +648,64 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>JINKO</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>JINKO-JKM580N-72HL4-BDV Bifacial Ntype / SF</t>
+          <t>LR5-66HTH-525W</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>580</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Silver Frame</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Bifacial</t>
-        </is>
-      </c>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2 278</t>
+          <t>525</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>2 094</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0.130</t>
         </is>
       </c>
     </row>
@@ -665,52 +717,64 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>JINKO</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JINKO-JKM585N-72HL4-BDV Bifacial Ntype / SF</t>
+          <t>LR5-66HPH-505M</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Silver Frame</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bifacial</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2 278</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>2 094</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0.207</t>
         </is>
       </c>
     </row>
@@ -722,52 +786,72 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>JINKO</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>JINKO-JKM625N-78HL4-BDV Bifacial Ntype / SF</t>
+          <t>LR5-54HTH-440M</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>1 500</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2 465</t>
+          <t>440</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>576</t>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0.130</t>
         </is>
       </c>
     </row>
@@ -784,47 +868,59 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LONGI LR5-72HGD-560W Bifacial</t>
+          <t>LR5-54HTH-435M</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>560</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Silver Frame</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bifacial</t>
-        </is>
-      </c>
+          <t>877</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2 278</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>720</t>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0.130</t>
         </is>
       </c>
     </row>
@@ -841,47 +937,59 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LONGI LR5-72HGD-565W Bifacial</t>
+          <t>LR5-54HTH-420M</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>565</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Silver Frame</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Bifacial</t>
-        </is>
-      </c>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2 278</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>720</t>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0.215</t>
         </is>
       </c>
     </row>
@@ -898,47 +1006,59 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LONGI LR5-72HGD-575W</t>
+          <t>LR5-54HTB-435M</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>575</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Silver Frame</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Bifacial</t>
-        </is>
-      </c>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Full Black</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2 278</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>720</t>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0.140</t>
         </is>
       </c>
     </row>
@@ -955,47 +1075,59 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LR5-54HTB-435M</t>
+          <t>LR5-54HPH-415M</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>435</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Full Black</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>Glass foil</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>1 722</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>936</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0.190</t>
         </is>
       </c>
     </row>
@@ -1012,47 +1144,59 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LR5-54HTD-430M Bifacial</t>
+          <t>LR5-54HIH-410M</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>430</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Black Frame</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Bifacial</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>1 722</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>936</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0.227</t>
         </is>
       </c>
     </row>
@@ -1064,52 +1208,64 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LONGI</t>
+          <t>JINKO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LR5-54HTD-435M Bifacial</t>
+          <t>JINKO Tiger Neo 72HL4-(V) 575W</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>435</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Bifacial</t>
-        </is>
-      </c>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>1 722</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>2 278</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0.143</t>
         </is>
       </c>
     </row>
@@ -1121,52 +1277,64 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LONGI</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LR5-54HTH-440M</t>
+          <t>JAM78S30-585/MR</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>Glass foil</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>1 722</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>2 465</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0.122</t>
         </is>
       </c>
     </row>
@@ -1178,52 +1346,64 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LONGI</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LR5-66HTH-520W</t>
+          <t>JAM72S30-545/MR</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>520</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+          <t>261</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>Glass foil</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2 094</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2 279</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>682</t>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0.131</t>
         </is>
       </c>
     </row>
@@ -1235,52 +1415,60 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LONGI</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LR5-66HTH-525W</t>
+          <t>JAM72S30-545-MR-SF 35MM</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>525</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>Glass foil</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2 094</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2 279</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>682</t>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0.115</t>
         </is>
       </c>
     </row>
@@ -1292,52 +1480,64 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>JINKO</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>JINKO JKM480N-60HL4 Black Frame / TIGER NEO N-TYPE</t>
+          <t>JAM72S20-460-MR</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>Glass foil</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1 906</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1 052</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>864</t>
+          <t>2 112</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0.130</t>
         </is>
       </c>
     </row>
@@ -1349,52 +1549,72 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LONGI</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LR5-72HTH-575M</t>
+          <t>JAM72D40-585-MB</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>520</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>Silver Frame</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>2 278</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>620</t>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0.122</t>
         </is>
       </c>
     </row>
@@ -1411,47 +1631,59 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LR5-72HTH-585M</t>
+          <t>LR5-72HBD-550M</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+          <t>118</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Silver Frame</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Glass foil</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>2 278</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>620</t>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>0.117</t>
         </is>
       </c>
     </row>
@@ -1463,52 +1695,64 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RENESOLA</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RS3-450M-E3</t>
+          <t>JAM72D40-580-MB</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>450</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Silver Frame</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>1 038</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2 094</t>
-        </is>
-      </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2 278</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>792</t>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>0.125</t>
         </is>
       </c>
     </row>
@@ -1520,52 +1764,64 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TRINA_NEG18R.28_495W-DUALGLASS_BF</t>
+          <t>LR5-72HTH-570M</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Double glass</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>1 961</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>864</t>
+          <t>2 278</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>0.124</t>
         </is>
       </c>
     </row>
@@ -1577,52 +1833,64 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>SUNMAN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TRINA_NEG18R.28_500W-DUALGLASS_BF</t>
+          <t>SUNMAN_SMF430F</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Double glass</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>430</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1 961</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>Flexible</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1 080</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>864</t>
+          <t>2 054</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1 320</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>0.310</t>
         </is>
       </c>
     </row>
@@ -1639,47 +1907,59 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TRINA_NEG18R.28_505W-DUALGLASS_BF</t>
+          <t>TRINA_TSM-550DE19</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>505</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Double glass</t>
-        </is>
-      </c>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>550</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1 961</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1 096</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>864</t>
+          <t>2 384</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>0.294</t>
         </is>
       </c>
     </row>
@@ -1696,47 +1976,59 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TRINA_NEG9R.25_435W Full black</t>
+          <t>TRINA_NEG9RC.27 n type 435 I-Topcon Bifacial DualG</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>1 625</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>435</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Full Black</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>1 762</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>936</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>0.143</t>
         </is>
       </c>
     </row>
@@ -1753,47 +2045,59 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TRINA_NEG9R.25_440W Full black</t>
+          <t>TRINA_NEG9R.28_435W_DUALGLASS</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Full Black</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>1 762</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>936</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>0.165</t>
         </is>
       </c>
     </row>
@@ -1810,47 +2114,59 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TRINA_NEG9R.25_445W Full black</t>
+          <t>TRINA_NEG9R.28_430W_DUALGLASS</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>445</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Full Black</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>1 762</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>936</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>0.240</t>
         </is>
       </c>
     </row>
@@ -1867,47 +2183,67 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TRINA_NEG9R.28 n type 440 I-Topcon DualGlass</t>
+          <t>TRINA_NEG9R.28 n type 450 I-Topcon DualGlass</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>735</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>Black Frame</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>Double glass</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>1 762</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>936</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>0.127</t>
         </is>
       </c>
     </row>
@@ -1929,42 +2265,62 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>1 698</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>445</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Black Frame</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>Double glass</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>1 762</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>936</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>0.137</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2337,59 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TRINA_NEG9R.28 n type 450 I-Topcon DualGlass</t>
+          <t>TRINA_DEG09R.08_420W_DUALGLASS</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>450</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Black Frame</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>Double glass</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>1 762</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>936</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>0.246</t>
         </is>
       </c>
     </row>
@@ -2038,47 +2406,59 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TRINA_NEG9R.28 n type 455 I-Topcon DualGlass</t>
+          <t>TRINA_DE09R.08_430W</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>455</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>Black Frame</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Double glass</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>1 762</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>936</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>0.196</t>
         </is>
       </c>
     </row>
@@ -2095,47 +2475,59 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TRINA_NEG9RC.27 n type 430 I-Topcon Bifacial DualG</t>
+          <t>TRINA_DE09R.08_425W</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>430</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>Black Frame</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Double glass</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>1 762</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>936</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>0.112</t>
         </is>
       </c>
     </row>
@@ -2147,52 +2539,64 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LONGI</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LR5-72HTH-580M</t>
+          <t>TRINA_DE09R.08W_415W</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>580</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Silver Frame</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>Glass foil</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2 278</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>0.222</t>
         </is>
       </c>
     </row>
@@ -2204,52 +2608,64 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>JINKO</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>JINKO JKM450N-54HL4 Black Frame / TIGER NEO N-TYPE</t>
+          <t>TRINA_DE09R.05_415W_Full black</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>450</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+          <t>672</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Full Black</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>Glass foil</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>1 762</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>936</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>0.109</t>
         </is>
       </c>
     </row>
@@ -2261,52 +2677,64 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>JINKO</t>
+          <t>TONGWEI</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>JINKO JKM445N-54HL4 Black Frame / TIGER NEO N-TYPE</t>
+          <t>TW-410W MAP-108-H-S BF</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>445</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
+          <t>612</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>Black Frame</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>Glass foil</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>1 762</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>936</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>0.165</t>
         </is>
       </c>
     </row>
@@ -2318,52 +2746,64 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>JINKO</t>
+          <t>TONGWEI</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>JINKO JKM435N-54HL4R-BDV Tiger NEO N-TYPE / BF</t>
+          <t>TW-400W- MAP-108-H-FULL BLACK</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>435</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Bifacial</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Full Black</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>1 762</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>936</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>0.220</t>
         </is>
       </c>
     </row>
@@ -2375,46 +2815,66 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>SUNPORT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA 135W 7004 Light Blue</t>
+          <t>SUNPORT SPP380QHES</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Frameless Full Light blue (7004)</t>
-        </is>
-      </c>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>380</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1 587</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>Flexible</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
+          <t>1 040</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>1 840</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>1 104</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>0.400</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2424,42 +2884,66 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AVANCIS</t>
+          <t>SUNPORT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AVANCIS SKALA B001 140W Black</t>
+          <t>SUNPORT SPP375QHES-B</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>375</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1 587</t>
+          <t>Full Black</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>Flexible</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
+          <t>1 040</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1 840</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>1 104</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>0.410</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2469,52 +2953,72 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CANADIAN</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CS6L-460MS_BF</t>
+          <t>LR5-72HTH-575M</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>847</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>Glass foil</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>1 903</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2 278</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>840</t>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>0.130</t>
         </is>
       </c>
     </row>
@@ -2526,52 +3030,64 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CANADIAN</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Canadian CS6.1-54TD-460 BF n type topcon</t>
+          <t>JAM72D40-575-MB</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>460</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Bifacial</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>1 800</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2 278</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>840</t>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>0.125</t>
         </is>
       </c>
     </row>
@@ -2583,52 +3099,64 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CANADIAN</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Canadian CS6.1-54TD-465 BF n type topcon</t>
+          <t>JAM72D30-550-MB-SF</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>465</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>550</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1 800</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
+          <t>1 052</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2 117</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
           <t>35</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>840</t>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>0.132</t>
         </is>
       </c>
     </row>
@@ -2640,52 +3168,72 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CANADIAN</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Canadian CS6R-440T n type topcon</t>
+          <t>JAM72D30-545-MB-SF</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>482</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>545</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
+          <t>1 052</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2 117</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
           <t>35</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>840</t>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>0.122</t>
         </is>
       </c>
     </row>
@@ -2697,52 +3245,64 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>CANADIAN</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>JAM54D40-425-GB-BF</t>
+          <t>CS6R-410 SF</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>425</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Double glass</t>
-        </is>
-      </c>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>1 722</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>936</t>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>910</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>0.284</t>
         </is>
       </c>
     </row>
@@ -2754,52 +3314,64 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>CANADIAN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>JAM54D40-435-LB-BF</t>
+          <t>CS6L-455MS_BF</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>435</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
+          <t>413</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
         <is>
           <t>Black Frame</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Double glass</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>1 722</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>1 903</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>936</t>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>0.119</t>
         </is>
       </c>
     </row>
@@ -2811,52 +3383,56 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>JAM54D40-440-GB-BF</t>
+          <t>AVANCIS SKALA G002 130W Grey</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Double glass</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>Frameless Full Grey (G002)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2868,52 +3444,52 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>JAM54D40-445-LB-BF</t>
+          <t>AVANCIS SKALA B001 140W Black</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>445</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Double glass</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1 762</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1.857</t>
         </is>
       </c>
     </row>
@@ -2925,52 +3501,56 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>JAM54D41-435-GB-ALL BLACK</t>
+          <t>AVANCIS SKALA 70W G001</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>435</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Full Black</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Double glass</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>1 134</t>
-        </is>
-      </c>
+          <t>Frameless Full Anthracite (G001)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>230</t>
         </is>
       </c>
     </row>
@@ -2982,52 +3562,52 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>JAM54D41-435-LB-ALL BLACK</t>
+          <t>AVANCIS SKALA 140W</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>435</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Full Black</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Double glass</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>1 762</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>1.857</t>
         </is>
       </c>
     </row>
@@ -3039,52 +3619,56 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>JAM54D41-440-LB-ALL BLACK</t>
+          <t>AVANCIS SKALA 135W G001 Anthracite</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Full Black</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Double glass</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1 762</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>Frameless Full Dark blue (7002)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>1.926</t>
         </is>
       </c>
     </row>
@@ -3096,52 +3680,56 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>JAM54S30-415-MR-BF</t>
+          <t>AVANCIS SKALA 135W 7002 Dark Blue</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>415</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1 722</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>Frameless Full Dark blue (7002)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>1.926</t>
         </is>
       </c>
     </row>
@@ -3153,52 +3741,52 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>JAM54S30-420-GR-BF</t>
+          <t>AVANCIS SKALA 130W B</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>420</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>1 722</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3210,52 +3798,52 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>JAM54S30-420-LR-BF</t>
+          <t>AVANCIS SKALA 130W</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>420</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>1 762</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3267,52 +3855,52 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>JAM54S31-405-MR-ALLBLACK</t>
+          <t>AVANCIS SKALA 125W</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>405</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Full Black</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>1 722</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>2.080</t>
         </is>
       </c>
     </row>
@@ -3324,52 +3912,56 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>JAM60S20-385-MR-BF</t>
+          <t>AVANCIS SKALA 120W 3002 Gold</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>385</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1 052</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1 769</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+          <t>Frameless Full Gold (3002)</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>2.167</t>
         </is>
       </c>
     </row>
@@ -3381,52 +3973,52 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>JAM66S30-505-MR BF</t>
+          <t>AVANCIS SKALA 115W</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>505</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Glass foil</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2 093</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>2.261</t>
         </is>
       </c>
     </row>
@@ -3438,52 +4030,52 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>JAM72D30-545-MB-SF</t>
+          <t>AVANCIS SKALA 100W 1202 RED</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>545</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Silver Frame</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Double glass</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1 052</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2 117</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>2.600</t>
         </is>
       </c>
     </row>
@@ -3495,52 +4087,52 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>JAM72D30-550-MB-SF</t>
+          <t>AVANCIS POWERMAX SKALA 150W B901</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Silver Frame</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Double glass</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1 052</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2 117</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>686</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>1 595</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>1.733</t>
         </is>
       </c>
     </row>
@@ -3552,52 +4144,64 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>CANADIAN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>JAM72D30-560-LB</t>
+          <t>CS6R-415 BF</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>560</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Silver Frame</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Double glass</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1 052</t>
+          <t>415</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2 117</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>620</t>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>910</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>0.140</t>
         </is>
       </c>
     </row>
@@ -3609,52 +4213,64 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>CANADIAN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>JAM72D40-580-GB</t>
+          <t>CS7L-595MS</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>580</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
         <is>
           <t>Silver Frame</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Bifacial</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2 278</t>
-        </is>
-      </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1 303</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>2 172</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>0.120</t>
         </is>
       </c>
     </row>
@@ -3666,52 +4282,64 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>CANADIAN</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>JAM72D40-580-MB</t>
+          <t>CS7N-665MS</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>580</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
+          <t>1 798</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
         <is>
           <t>Silver Frame</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Bifacial</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2 278</t>
-        </is>
-      </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1 303</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>2 384</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>0.182</t>
         </is>
       </c>
     </row>
@@ -3723,52 +4351,64 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>CANADIAN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>JAM72D40-585-MB</t>
+          <t>Canadian CS6R-440T n type topcon</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Silver Frame</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Bifacial</t>
-        </is>
-      </c>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2 278</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>720</t>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>0.120</t>
         </is>
       </c>
     </row>
@@ -3785,47 +4425,59 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>JAM72D40-590-LB</t>
+          <t>JAM72D30-540-MB-SF</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>590</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
         <is>
           <t>Silver Frame</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Bifacial</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2 333</t>
-        </is>
-      </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1 052</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>2 117</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>0.110</t>
         </is>
       </c>
     </row>
@@ -3842,47 +4494,67 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>JAM72D42-630-LB</t>
+          <t>JAM66S30-505-MR BF</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>460</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2 465</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>2 093</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>0.110</t>
         </is>
       </c>
     </row>
@@ -3899,47 +4571,59 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>JAM72S30-550/MR SF</t>
+          <t>JAM60S20-385-MR-BF [NEW]</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Silver Frame</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
+          <t>299</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>Glass foil</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2 279</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>1 052</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>1 769</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>620</t>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>0.130</t>
         </is>
       </c>
     </row>
@@ -3951,52 +4635,72 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>JINKO</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>JINKO JKM430N-54HL4R-BDV Tiger NEO N-TYPE / BF</t>
+          <t>JAM60S20-385-MR-BF</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>96</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
           <t>Black Frame</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Bifacial</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>1 762</t>
-        </is>
-      </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1 052</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>1 769</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>0.130</t>
         </is>
       </c>
     </row>
@@ -4008,52 +4712,64 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>TRINA_NEG9RC.27 n type 435 I-Topcon Bifacial DualG</t>
+          <t>JAM54S31-410-MR-ALLBLACK</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>435</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Bifacial</t>
-        </is>
-      </c>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Full Black</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
           <t>1 134</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>1 762</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="N64" t="inlineStr">
         <is>
           <t>936</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>0.115</t>
         </is>
       </c>
     </row>
@@ -4065,52 +4781,924 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>JAM54S31-405-MR-ALLBLACK</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Full Black</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>JAM54S30-425-LR-BF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
           <t>TRINA</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>TRINA_NEG9RC.27 n type 440 I-Topcon Bifacial DualG</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>TRINA_TSM-555DE19</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>1 096</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2 384</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>0.293</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>JAM54S30-420-GR-BF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
         <is>
           <t>Black Frame</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>JAM54S30-415-GR-BF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>JAM54S30-410-MR-SF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>JAM54S30-405-MR-BF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>JAM54D40-445-LB-BF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>0.118</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>JAM54D40-435-LB-BF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>0.127</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>JAM54D40-425-GB-BF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>0.130</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>JAM54D40-420-MB-BF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>0.120</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>JAM54S30-415-MR-BF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>TRINA</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>TRINA_TSM-650_DEG21C.20</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>Bifacial</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>1 762</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>936</t>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>1 303</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>2 384</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>0.161</t>
         </is>
       </c>
     </row>
